--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado07\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19203" windowHeight="8957" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
   <si>
     <t>Fecha:</t>
   </si>
@@ -505,9 +510,6 @@
     <t>Recurso número 10 (para el Cuaderno de Estudio no se escribe nada)</t>
   </si>
   <si>
-    <t>F01</t>
-  </si>
-  <si>
     <t>Cuaderno de Estudio</t>
   </si>
   <si>
@@ -517,64 +519,19 @@
     <t>Horizontal</t>
   </si>
   <si>
-    <t>F02</t>
-  </si>
-  <si>
     <t>http://upload.wikimedia.org/wikipedia/commons/0/01/Blood_letting.jpg</t>
   </si>
   <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>F04</t>
-  </si>
-  <si>
     <t>https://www.flickr.com/photos/niaid/5613656967/in/photolist-9y4sD6-663GS3-oUqw4E-aUpZtv-dntBkS-dkYoFh-4ZXvEZ-4YnKb1-8YbMM3-4YXcRC-o51L4j-76JBn-qAUTwY-8tKfgH-8tNhkL-5cKC4a-4UGmk7-61DzQU-3KuSy-q5DmCS-dWPJZt-pApGc6-AFNa1-56SBkB-fqJvak-aoWdob-AFN91-9VQDQb-9VQDTf-aoTsPK-qbdaqP-q975rQ-qagM4E-5kV8ot-9VQDMq-a3bJE2-5TYVL9-pAmf2i-5TVUyU-f4X8hj-8u1KXR-dQu5BG-97CcJU-xHczv-4URYiB-4YgqFy-7wsmgv-6pu9Ck-4TsbqH</t>
   </si>
   <si>
-    <t>F05</t>
-  </si>
-  <si>
     <t>http://upload.wikimedia.org/wikipedia/commons/c/c2/1887_postcard_of_Queen_Victoria.jpg</t>
   </si>
   <si>
-    <t>F06</t>
-  </si>
-  <si>
     <t>http://upload.wikimedia.org/wikipedia/commons/4/47/Schprophase.jpg</t>
   </si>
   <si>
-    <t>F07</t>
-  </si>
-  <si>
-    <t>F08</t>
-  </si>
-  <si>
-    <t>F09</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
     <t>http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/c/c7/Sharplan_40C.jpg&amp;imgrefurl=http://en.wikipedia.org/wiki/Laser_scalpel&amp;h=2490&amp;w=1746&amp;tbnid=OSqpBE8hFKfKqM:&amp;zoom=1&amp;docid=F_kqsIpiwMd27M&amp;ei=ZtjrVLuWGOqPsQSlsYKgBw&amp;tbm=isch&amp;ved=0CB4QMygAMAA</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>F15</t>
-  </si>
-  <si>
-    <t>F16</t>
-  </si>
-  <si>
-    <t>F17</t>
   </si>
   <si>
     <t>Fotografía de un busto de Hipócrates</t>
@@ -640,11 +597,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1828,6 +1785,396 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1019724</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1014936</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>833014</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>4787</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>837801</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>4787</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>837801</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19150</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>4787</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1038873</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>234584</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1048448</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>4787</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>866526</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>234584</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>14362</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>4787</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>4787</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>234584</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2149,19 +2496,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31:C32"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.8125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
@@ -2176,7 +2523,7 @@
     <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2188,7 +2535,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2205,7 +2552,7 @@
       <c r="I2" s="48"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2222,13 +2569,13 @@
       <c r="I3" s="48"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D4" s="99"/>
       <c r="E4" s="5"/>
@@ -2236,20 +2583,20 @@
         <v>55</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" s="48"/>
       <c r="I4" s="48"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D5" s="101"/>
       <c r="E5" s="5"/>
@@ -2263,7 +2610,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2276,13 +2623,13 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -2294,7 +2641,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2314,7 +2661,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1">
+    <row r="9" spans="1:16" ht="26.05" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
         <v>2</v>
       </c>
@@ -2349,25 +2696,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="73">
         <v>208355944</v>
       </c>
       <c r="C10" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="E10" s="74" t="s">
         <v>147</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>148</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_07_13_CO_F01_small</v>
+        <v>CN_07_13_CO_IMG01_small</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2375,623 +2722,639 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_07_13_CO_F01_zoom</v>
+        <v>CN_07_13_CO_IMG01_zoom</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="72" t="s">
-        <v>149</v>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="str">
+        <f t="shared" ref="A11:A26" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1),MID(A10,4,2)+1)),"")</f>
+        <v>IMG02</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="E11" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F11" s="14" t="str">
-        <f t="shared" ref="F11:F74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_07_13_CO_F02_small</v>
+        <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_07_13_CO_IMG02_small</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f t="shared" ref="H11:H74" si="1">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_07_13_CO_F02_zoom</v>
+        <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CN_07_13_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="82" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="72" t="s">
-        <v>151</v>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG03</v>
       </c>
       <c r="B12" s="76">
         <v>92321482</v>
       </c>
       <c r="C12" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="E12" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F03_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H12" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F03_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="72" t="s">
-        <v>152</v>
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="87.1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG04</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="E13" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F04_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG04_small</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H13" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F04_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG04_zoom</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="83" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="72" t="s">
-        <v>154</v>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="24.9" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG05</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C14" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="E14" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F05_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG05_small</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H14" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F05_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="82" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="72" t="s">
-        <v>156</v>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG06</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C15" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="E15" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F06_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG06_small</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H15" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F06_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG06_zoom</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="82" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="72" t="s">
-        <v>158</v>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG07</v>
       </c>
       <c r="B16" s="78">
         <v>132237047</v>
       </c>
       <c r="C16" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="E16" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F07_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG07_small</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H16" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F07_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="72" t="s">
-        <v>159</v>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG08</v>
       </c>
       <c r="B17" s="78">
         <v>138638984</v>
       </c>
       <c r="C17" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="E17" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F08_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG08_small</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H17" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F08_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="85" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="72" t="s">
-        <v>160</v>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG09</v>
       </c>
       <c r="B18" s="78">
         <v>158365127</v>
       </c>
       <c r="C18" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="E18" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F09_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H18" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F09_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="72" t="s">
-        <v>161</v>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="62.2" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG10</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C19" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="E19" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F10_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG10_small</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H19" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F10_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG10_zoom</v>
       </c>
       <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="84" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="72" t="s">
-        <v>163</v>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG11</v>
       </c>
       <c r="B20" s="78">
         <v>196514594</v>
       </c>
       <c r="C20" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="E20" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F11_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG11_small</v>
       </c>
       <c r="G20" s="14" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H20" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F11_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="14" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="72" t="s">
-        <v>164</v>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG12</v>
       </c>
       <c r="B21" s="80">
         <v>189090734</v>
       </c>
       <c r="C21" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="E21" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F12_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG12_small</v>
       </c>
       <c r="G21" s="14" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H21" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F12_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="14" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="85" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="72" t="s">
-        <v>98</v>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG13</v>
       </c>
       <c r="B22" s="81">
         <v>107915651</v>
       </c>
       <c r="C22" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="E22" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F22" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F13_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG13_small</v>
       </c>
       <c r="G22" s="14" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H22" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F13_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="14" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="86" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="72" t="s">
-        <v>165</v>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG14</v>
       </c>
       <c r="B23" s="78">
         <v>201006257</v>
       </c>
       <c r="C23" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="E23" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F14_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG14_small</v>
       </c>
       <c r="G23" s="14" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H23" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F14_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="14" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="82" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="72" t="s">
-        <v>166</v>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG15</v>
       </c>
       <c r="B24" s="73">
         <v>132880304</v>
       </c>
       <c r="C24" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="E24" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F15_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG15_small</v>
       </c>
       <c r="G24" s="14" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H24" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F15_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG15_zoom</v>
       </c>
       <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="74" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="72" t="s">
-        <v>167</v>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG16</v>
       </c>
       <c r="B25" s="78">
         <v>112344575</v>
       </c>
       <c r="C25" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="E25" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F25" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F16_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG16_small</v>
       </c>
       <c r="G25" s="14" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H25" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F16_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG16_zoom</v>
       </c>
       <c r="I25" s="14" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="74" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="72" t="s">
-        <v>168</v>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>IMG17</v>
       </c>
       <c r="B26" s="78">
         <v>189319409</v>
       </c>
       <c r="C26" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="E26" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="74" t="s">
-        <v>148</v>
-      </c>
       <c r="F26" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_CO_F17_small</v>
+        <f t="shared" si="1"/>
+        <v>CN_07_13_CO_IMG17_small</v>
       </c>
       <c r="G26" s="14" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H26" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>CN_07_13_CO_F17_zoom</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_CO_IMG17_zoom</v>
       </c>
       <c r="I26" s="14" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="74" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1">
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="str">
-        <f t="shared" ref="A27:A83" si="2">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1),MID(A26,4,2)+1)),"")</f>
+        <f t="shared" ref="A27:A83" si="3">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1),MID(A26,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="27" t="str">
-        <f t="shared" ref="C27:C74" si="3">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C27:C74" si="4">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G27" s="14" t="str">
@@ -2999,7 +3362,7 @@
         <v/>
       </c>
       <c r="H27" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I27" s="14" t="str">
@@ -3009,20 +3372,20 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1">
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G28" s="14" t="str">
@@ -3030,7 +3393,7 @@
         <v/>
       </c>
       <c r="H28" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I28" s="14" t="str">
@@ -3040,20 +3403,20 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1">
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G29" s="14" t="str">
@@ -3061,7 +3424,7 @@
         <v/>
       </c>
       <c r="H29" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I29" s="14" t="str">
@@ -3071,20 +3434,20 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1">
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G30" s="14" t="str">
@@ -3092,7 +3455,7 @@
         <v/>
       </c>
       <c r="H30" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I30" s="14" t="str">
@@ -3102,20 +3465,20 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1">
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G31" s="14" t="str">
@@ -3123,7 +3486,7 @@
         <v/>
       </c>
       <c r="H31" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I31" s="14" t="str">
@@ -3133,20 +3496,20 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1">
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
@@ -3154,7 +3517,7 @@
         <v/>
       </c>
       <c r="H32" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I32" s="14" t="str">
@@ -3164,20 +3527,20 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1">
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G33" s="14" t="str">
@@ -3185,7 +3548,7 @@
         <v/>
       </c>
       <c r="H33" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I33" s="14" t="str">
@@ -3195,20 +3558,20 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1">
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G34" s="14" t="str">
@@ -3216,7 +3579,7 @@
         <v/>
       </c>
       <c r="H34" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I34" s="14" t="str">
@@ -3226,20 +3589,20 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1">
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G35" s="14" t="str">
@@ -3247,7 +3610,7 @@
         <v/>
       </c>
       <c r="H35" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I35" s="14" t="str">
@@ -3257,20 +3620,20 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1">
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G36" s="14" t="str">
@@ -3278,7 +3641,7 @@
         <v/>
       </c>
       <c r="H36" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I36" s="14" t="str">
@@ -3288,20 +3651,20 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G37" s="14" t="str">
@@ -3309,7 +3672,7 @@
         <v/>
       </c>
       <c r="H37" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I37" s="14" t="str">
@@ -3319,20 +3682,20 @@
       <c r="J37" s="22"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1">
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G38" s="14" t="str">
@@ -3340,7 +3703,7 @@
         <v/>
       </c>
       <c r="H38" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I38" s="14" t="str">
@@ -3350,20 +3713,20 @@
       <c r="J38" s="23"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1">
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G39" s="14" t="str">
@@ -3371,7 +3734,7 @@
         <v/>
       </c>
       <c r="H39" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I39" s="14" t="str">
@@ -3381,20 +3744,20 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1">
+    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G40" s="14" t="str">
@@ -3402,7 +3765,7 @@
         <v/>
       </c>
       <c r="H40" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I40" s="14" t="str">
@@ -3412,20 +3775,20 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1">
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G41" s="14" t="str">
@@ -3433,7 +3796,7 @@
         <v/>
       </c>
       <c r="H41" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I41" s="14" t="str">
@@ -3443,20 +3806,20 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G42" s="14" t="str">
@@ -3464,7 +3827,7 @@
         <v/>
       </c>
       <c r="H42" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I42" s="14" t="str">
@@ -3474,20 +3837,20 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1">
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
@@ -3495,7 +3858,7 @@
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
@@ -3505,20 +3868,20 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1">
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G44" s="14" t="str">
@@ -3526,7 +3889,7 @@
         <v/>
       </c>
       <c r="H44" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I44" s="14" t="str">
@@ -3536,20 +3899,20 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1">
+    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G45" s="14" t="str">
@@ -3557,7 +3920,7 @@
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
@@ -3567,20 +3930,20 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1">
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G46" s="14" t="str">
@@ -3588,7 +3951,7 @@
         <v/>
       </c>
       <c r="H46" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I46" s="14" t="str">
@@ -3598,20 +3961,20 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1">
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G47" s="14" t="str">
@@ -3619,7 +3982,7 @@
         <v/>
       </c>
       <c r="H47" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I47" s="14" t="str">
@@ -3629,20 +3992,20 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1">
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G48" s="14" t="str">
@@ -3650,7 +4013,7 @@
         <v/>
       </c>
       <c r="H48" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I48" s="14" t="str">
@@ -3660,20 +4023,20 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1">
+    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G49" s="14" t="str">
@@ -3681,7 +4044,7 @@
         <v/>
       </c>
       <c r="H49" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I49" s="14" t="str">
@@ -3691,20 +4054,20 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1">
+    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G50" s="14" t="str">
@@ -3712,7 +4075,7 @@
         <v/>
       </c>
       <c r="H50" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I50" s="14" t="str">
@@ -3722,20 +4085,20 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1">
+    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G51" s="14" t="str">
@@ -3743,7 +4106,7 @@
         <v/>
       </c>
       <c r="H51" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I51" s="14" t="str">
@@ -3753,20 +4116,20 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1">
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G52" s="14" t="str">
@@ -3774,7 +4137,7 @@
         <v/>
       </c>
       <c r="H52" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I52" s="14" t="str">
@@ -3784,20 +4147,20 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1">
+    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G53" s="14" t="str">
@@ -3805,7 +4168,7 @@
         <v/>
       </c>
       <c r="H53" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I53" s="14" t="str">
@@ -3815,20 +4178,20 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1">
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G54" s="14" t="str">
@@ -3836,7 +4199,7 @@
         <v/>
       </c>
       <c r="H54" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I54" s="14" t="str">
@@ -3846,20 +4209,20 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1">
+    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G55" s="14" t="str">
@@ -3867,7 +4230,7 @@
         <v/>
       </c>
       <c r="H55" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I55" s="14" t="str">
@@ -3877,20 +4240,20 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1">
+    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G56" s="14" t="str">
@@ -3898,7 +4261,7 @@
         <v/>
       </c>
       <c r="H56" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I56" s="14" t="str">
@@ -3908,20 +4271,20 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1">
+    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G57" s="14" t="str">
@@ -3929,7 +4292,7 @@
         <v/>
       </c>
       <c r="H57" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I57" s="14" t="str">
@@ -3939,20 +4302,20 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1">
+    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G58" s="14" t="str">
@@ -3960,7 +4323,7 @@
         <v/>
       </c>
       <c r="H58" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I58" s="14" t="str">
@@ -3970,20 +4333,20 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1">
+    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -3991,7 +4354,7 @@
         <v/>
       </c>
       <c r="H59" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I59" s="14" t="str">
@@ -4001,20 +4364,20 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1">
+    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -4022,7 +4385,7 @@
         <v/>
       </c>
       <c r="H60" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I60" s="14" t="str">
@@ -4032,20 +4395,20 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1">
+    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -4053,7 +4416,7 @@
         <v/>
       </c>
       <c r="H61" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I61" s="14" t="str">
@@ -4063,20 +4426,20 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1">
+    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -4084,7 +4447,7 @@
         <v/>
       </c>
       <c r="H62" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I62" s="14" t="str">
@@ -4094,20 +4457,20 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1">
+    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -4115,7 +4478,7 @@
         <v/>
       </c>
       <c r="H63" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I63" s="14" t="str">
@@ -4125,20 +4488,20 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1">
+    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -4146,7 +4509,7 @@
         <v/>
       </c>
       <c r="H64" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I64" s="14" t="str">
@@ -4156,20 +4519,20 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1">
+    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -4177,7 +4540,7 @@
         <v/>
       </c>
       <c r="H65" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I65" s="14" t="str">
@@ -4187,20 +4550,20 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1">
+    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -4208,7 +4571,7 @@
         <v/>
       </c>
       <c r="H66" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I66" s="14" t="str">
@@ -4218,20 +4581,20 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1">
+    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -4239,7 +4602,7 @@
         <v/>
       </c>
       <c r="H67" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I67" s="14" t="str">
@@ -4249,20 +4612,20 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1">
+    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -4270,7 +4633,7 @@
         <v/>
       </c>
       <c r="H68" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I68" s="14" t="str">
@@ -4280,20 +4643,20 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1">
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -4301,7 +4664,7 @@
         <v/>
       </c>
       <c r="H69" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I69" s="14" t="str">
@@ -4311,20 +4674,20 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1">
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -4332,7 +4695,7 @@
         <v/>
       </c>
       <c r="H70" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I70" s="14" t="str">
@@ -4342,20 +4705,20 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1">
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -4363,7 +4726,7 @@
         <v/>
       </c>
       <c r="H71" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I71" s="14" t="str">
@@ -4373,20 +4736,20 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1">
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G72" s="14" t="str">
@@ -4394,7 +4757,7 @@
         <v/>
       </c>
       <c r="H72" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I72" s="14" t="str">
@@ -4404,20 +4767,20 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1">
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G73" s="14" t="str">
@@ -4425,7 +4788,7 @@
         <v/>
       </c>
       <c r="H73" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I73" s="14" t="str">
@@ -4435,20 +4798,20 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1">
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -4456,7 +4819,7 @@
         <v/>
       </c>
       <c r="H74" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I74" s="14" t="str">
@@ -4466,20 +4829,20 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1">
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="27" t="str">
-        <f t="shared" ref="C75:C108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C75:C108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F75:F108" si="6">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -4487,7 +4850,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="6">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H75:H108" si="7">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -4497,20 +4860,20 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -4518,7 +4881,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -4528,20 +4891,20 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1">
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G77" s="14" t="str">
@@ -4549,7 +4912,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -4559,20 +4922,20 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G78" s="14" t="str">
@@ -4580,7 +4943,7 @@
         <v/>
       </c>
       <c r="H78" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I78" s="14" t="str">
@@ -4590,20 +4953,20 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G79" s="14" t="str">
@@ -4611,7 +4974,7 @@
         <v/>
       </c>
       <c r="H79" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I79" s="14" t="str">
@@ -4621,20 +4984,20 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1">
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G80" s="14" t="str">
@@ -4642,7 +5005,7 @@
         <v/>
       </c>
       <c r="H80" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I80" s="14" t="str">
@@ -4652,20 +5015,20 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G81" s="14" t="str">
@@ -4673,7 +5036,7 @@
         <v/>
       </c>
       <c r="H81" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I81" s="14" t="str">
@@ -4683,20 +5046,20 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1">
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G82" s="14" t="str">
@@ -4704,7 +5067,7 @@
         <v/>
       </c>
       <c r="H82" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I82" s="14" t="str">
@@ -4714,20 +5077,20 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1">
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G83" s="14" t="str">
@@ -4735,7 +5098,7 @@
         <v/>
       </c>
       <c r="H83" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I83" s="14" t="str">
@@ -4745,20 +5108,20 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1">
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="str">
-        <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
+        <f t="shared" ref="A84:A108" si="8">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G84" s="14" t="str">
@@ -4766,7 +5129,7 @@
         <v/>
       </c>
       <c r="H84" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I84" s="14" t="str">
@@ -4776,20 +5139,20 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G85" s="14" t="str">
@@ -4797,7 +5160,7 @@
         <v/>
       </c>
       <c r="H85" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I85" s="14" t="str">
@@ -4807,20 +5170,20 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G86" s="14" t="str">
@@ -4828,7 +5191,7 @@
         <v/>
       </c>
       <c r="H86" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I86" s="14" t="str">
@@ -4838,20 +5201,20 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G87" s="14" t="str">
@@ -4859,7 +5222,7 @@
         <v/>
       </c>
       <c r="H87" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I87" s="14" t="str">
@@ -4869,20 +5232,20 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1">
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G88" s="14" t="str">
@@ -4890,7 +5253,7 @@
         <v/>
       </c>
       <c r="H88" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I88" s="14" t="str">
@@ -4900,20 +5263,20 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1">
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G89" s="14" t="str">
@@ -4921,7 +5284,7 @@
         <v/>
       </c>
       <c r="H89" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I89" s="14" t="str">
@@ -4931,20 +5294,20 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1">
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G90" s="14" t="str">
@@ -4952,7 +5315,7 @@
         <v/>
       </c>
       <c r="H90" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I90" s="14" t="str">
@@ -4962,20 +5325,20 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1">
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G91" s="14" t="str">
@@ -4983,7 +5346,7 @@
         <v/>
       </c>
       <c r="H91" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I91" s="14" t="str">
@@ -4993,20 +5356,20 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1">
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G92" s="14" t="str">
@@ -5014,7 +5377,7 @@
         <v/>
       </c>
       <c r="H92" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I92" s="14" t="str">
@@ -5024,20 +5387,20 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1">
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G93" s="14" t="str">
@@ -5045,7 +5408,7 @@
         <v/>
       </c>
       <c r="H93" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I93" s="14" t="str">
@@ -5055,20 +5418,20 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1">
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G94" s="14" t="str">
@@ -5076,7 +5439,7 @@
         <v/>
       </c>
       <c r="H94" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I94" s="14" t="str">
@@ -5086,20 +5449,20 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1">
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G95" s="14" t="str">
@@ -5107,7 +5470,7 @@
         <v/>
       </c>
       <c r="H95" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I95" s="14" t="str">
@@ -5117,20 +5480,20 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1">
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G96" s="14" t="str">
@@ -5138,7 +5501,7 @@
         <v/>
       </c>
       <c r="H96" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I96" s="14" t="str">
@@ -5148,20 +5511,20 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1">
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G97" s="14" t="str">
@@ -5169,7 +5532,7 @@
         <v/>
       </c>
       <c r="H97" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I97" s="14" t="str">
@@ -5179,20 +5542,20 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1">
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G98" s="14" t="str">
@@ -5200,7 +5563,7 @@
         <v/>
       </c>
       <c r="H98" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I98" s="14" t="str">
@@ -5210,20 +5573,20 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1">
+    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G99" s="14" t="str">
@@ -5231,7 +5594,7 @@
         <v/>
       </c>
       <c r="H99" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I99" s="14" t="str">
@@ -5241,20 +5604,20 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1">
+    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G100" s="14" t="str">
@@ -5262,7 +5625,7 @@
         <v/>
       </c>
       <c r="H100" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I100" s="14" t="str">
@@ -5272,20 +5635,20 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1">
+    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G101" s="14" t="str">
@@ -5293,7 +5656,7 @@
         <v/>
       </c>
       <c r="H101" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I101" s="14" t="str">
@@ -5303,20 +5666,20 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1">
+    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G102" s="14" t="str">
@@ -5324,7 +5687,7 @@
         <v/>
       </c>
       <c r="H102" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I102" s="14" t="str">
@@ -5334,20 +5697,20 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1">
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G103" s="14" t="str">
@@ -5355,7 +5718,7 @@
         <v/>
       </c>
       <c r="H103" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I103" s="14" t="str">
@@ -5365,20 +5728,20 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1">
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G104" s="14" t="str">
@@ -5386,7 +5749,7 @@
         <v/>
       </c>
       <c r="H104" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I104" s="14" t="str">
@@ -5396,20 +5759,20 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1">
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G105" s="14" t="str">
@@ -5417,7 +5780,7 @@
         <v/>
       </c>
       <c r="H105" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I105" s="14" t="str">
@@ -5427,20 +5790,20 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1">
+    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G106" s="14" t="str">
@@ -5448,7 +5811,7 @@
         <v/>
       </c>
       <c r="H106" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I106" s="14" t="str">
@@ -5458,20 +5821,20 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1">
+    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G107" s="14" t="str">
@@ -5479,7 +5842,7 @@
         <v/>
       </c>
       <c r="H107" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I107" s="14" t="str">
@@ -5489,20 +5852,20 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1">
+    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G108" s="14" t="str">
@@ -5510,7 +5873,7 @@
         <v/>
       </c>
       <c r="H108" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I108" s="14" t="str">
@@ -5574,7 +5937,7 @@
     <hyperlink ref="B11" r:id="rId1"/>
     <hyperlink ref="B14" r:id="rId2"/>
     <hyperlink ref="B15" r:id="rId3"/>
-    <hyperlink ref="B13" display="https://www.flickr.com/photos/niaid/5613656967/in/photolist-9y4sD6-663GS3-oUqw4E-aUpZtv-dntBkS-dkYoFh-4ZXvEZ-4YnKb1-8YbMM3-4YXcRC-o51L4j-76JBn-qAUTwY-8tKfgH-8tNhkL-5cKC4a-4UGmk7-61DzQU-3KuSy-q5DmCS-dWPJZt-pApGc6-AFNa1-56SBkB-fqJvak-aoWdob-AFN91-9VQDQb-9VQ"/>
+    <hyperlink ref="B13"/>
     <hyperlink ref="B19" display="http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/c/c7/Sharplan_40C.jpg&amp;imgrefurl=http://en.wikipedia.org/wiki/Laser_scalpel&amp;h=2490&amp;w=1746&amp;tbnid=OSqpBE8hFKfKqM:&amp;zoom=1&amp;docid=F_kqsIpiwMd27M&amp;ei=ZtjrVLuWGOqPsQSlsYKgBw&amp;tbm=isch"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5588,7 +5951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5596,7 +5959,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="72.25" style="30" customWidth="1"/>
     <col min="2" max="2" width="11" style="30"/>
@@ -5607,7 +5970,7 @@
     <col min="12" max="16384" width="11" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="104" t="s">
         <v>38</v>
       </c>
@@ -5617,7 +5980,7 @@
       <c r="E1" s="105"/>
       <c r="F1" s="106"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
@@ -5629,7 +5992,7 @@
       <c r="E2" s="109"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
       <c r="A3" s="41" t="s">
         <v>43</v>
       </c>
@@ -5653,7 +6016,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A4" s="38" t="s">
         <v>44</v>
       </c>
@@ -5681,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41" t="s">
         <v>45</v>
       </c>
@@ -5708,7 +6071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
@@ -5730,7 +6093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
@@ -5757,7 +6120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
       <c r="A8" s="41" t="s">
         <v>53</v>
       </c>
@@ -5776,7 +6139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
       <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
@@ -5795,7 +6158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="42" t="s">
         <v>36</v>
       </c>
@@ -5814,7 +6177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="I11" s="30" t="s">
         <v>32</v>
       </c>
@@ -5825,7 +6188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="30" t="s">
         <v>37</v>
       </c>
@@ -5836,7 +6199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" s="104" t="s">
         <v>41</v>
       </c>
@@ -5855,7 +6218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="41"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -5872,7 +6235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="38" t="s">
         <v>46</v>
       </c>
@@ -5890,7 +6253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1">
+    <row r="16" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="41" t="s">
         <v>47</v>
       </c>
@@ -5914,7 +6277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="38" t="s">
         <v>44</v>
       </c>
@@ -5935,7 +6298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="41" t="s">
         <v>48</v>
       </c>
@@ -5956,7 +6319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" s="38" t="s">
         <v>10</v>
       </c>
@@ -5975,7 +6338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
@@ -5997,7 +6360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H21" s="30" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6014,122 +6377,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K22" s="30">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K23" s="30">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K24" s="30">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K25" s="30">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K26" s="30">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K27" s="30">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K28" s="30">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K29" s="30">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K30" s="30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K31" s="30">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K32" s="30">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K33" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K34" s="30">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K35" s="30">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K36" s="30">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K37" s="30">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K38" s="30">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K39" s="30">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K40" s="30">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K41" s="30">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K42" s="30">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K43" s="30">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K44" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K45" s="30" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6149,12 +6512,173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1019724</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1014936</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>833014</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>19150</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>4787</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1038873</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>234584</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1048448</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>4787</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>866526</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>234584</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>14362</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>4787</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>234584</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -6162,7 +6686,7 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21" style="30" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="30" customWidth="1"/>
@@ -6178,7 +6702,7 @@
     <col min="12" max="16384" width="10.875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" s="118" t="s">
         <v>56</v>
       </c>
@@ -6206,7 +6730,7 @@
       <c r="I1" s="119"/>
       <c r="J1" s="119"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="118"/>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
@@ -6224,7 +6748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="51" customFormat="1">
+    <row r="3" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="50" t="s">
         <v>69</v>
       </c>
@@ -6248,7 +6772,7 @@
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
     </row>
-    <row r="4" spans="1:11" s="51" customFormat="1">
+    <row r="4" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="52" t="s">
         <v>57</v>
       </c>
@@ -6276,7 +6800,7 @@
       </c>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:11" s="51" customFormat="1">
+    <row r="5" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="53" t="s">
         <v>77</v>
       </c>
@@ -6304,7 +6828,7 @@
       </c>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:11" s="51" customFormat="1">
+    <row r="6" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="52" t="s">
         <v>58</v>
       </c>
@@ -6336,7 +6860,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="51" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A7" s="52" t="s">
         <v>80</v>
       </c>
@@ -6364,7 +6888,7 @@
       </c>
       <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:11" s="51" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="52" t="s">
         <v>82</v>
       </c>
@@ -6392,7 +6916,7 @@
       </c>
       <c r="J8" s="52"/>
     </row>
-    <row r="9" spans="1:11" s="51" customFormat="1">
+    <row r="9" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="52" t="s">
         <v>84</v>
       </c>
@@ -6420,7 +6944,7 @@
       </c>
       <c r="J9" s="52"/>
     </row>
-    <row r="10" spans="1:11" s="51" customFormat="1">
+    <row r="10" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="52" t="s">
         <v>86</v>
       </c>
@@ -6446,7 +6970,7 @@
       </c>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="1:11" s="51" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A11" s="52" t="s">
         <v>89</v>
       </c>
@@ -6474,7 +6998,7 @@
       </c>
       <c r="J11" s="52"/>
     </row>
-    <row r="12" spans="1:11" s="51" customFormat="1">
+    <row r="12" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="52" t="s">
         <v>91</v>
       </c>
@@ -6502,7 +7026,7 @@
       </c>
       <c r="J12" s="52"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
       <c r="A13" s="55" t="s">
         <v>93</v>
       </c>
@@ -6529,7 +7053,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="55" t="s">
         <v>97</v>
       </c>
@@ -6553,7 +7077,7 @@
       </c>
       <c r="J14" s="55"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A15" s="55" t="s">
         <v>99</v>
       </c>
@@ -6580,7 +7104,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="95" x14ac:dyDescent="0.5">
       <c r="A16" s="57" t="s">
         <v>103</v>
       </c>
@@ -6609,7 +7133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A17" s="52" t="s">
         <v>106</v>
       </c>
@@ -6638,12 +7162,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" s="62" t="s">
         <v>113</v>
       </c>
@@ -6656,7 +7180,7 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="65" t="s">
         <v>114</v>
       </c>
@@ -6669,7 +7193,7 @@
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="65" t="s">
         <v>115</v>
       </c>
@@ -6682,7 +7206,7 @@
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A24" s="65" t="s">
         <v>116</v>
       </c>
@@ -6695,7 +7219,7 @@
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" s="65" t="s">
         <v>117</v>
       </c>
@@ -6708,7 +7232,7 @@
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
       <c r="A26" s="65" t="s">
         <v>118</v>
       </c>

--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado07\guion13\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19203" windowHeight="8957" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35020" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Fecha:</t>
   </si>
@@ -593,6 +588,18 @@
   <si>
     <t>CN_07_13_CO</t>
   </si>
+  <si>
+    <t>credito:"Sharplan 40C" by Etan J. Tal - Own work. Licensed under CC BY-SA 3.0 via Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Sharplan_40C.jpg#/media/File:Sharplan_40C.jpg</t>
+  </si>
+  <si>
+    <t>dominio publico</t>
+  </si>
+  <si>
+    <t>credito : NIAID</t>
+  </si>
+  <si>
+    <t>credito: "Schprophase". Licensed under CC BY-SA 2.5 via Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Schprophase.jpg#/media/File:Schprophase.jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -601,7 +608,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -756,6 +763,16 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1008,11 +1025,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1021,7 +1038,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1029,17 +1046,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1049,7 +1066,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1057,12 +1074,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,18 +1088,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,11 +1129,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1126,10 +1143,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1139,7 +1156,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1213,16 +1230,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,23 +1247,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,7 +1338,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1652,6 +1669,18 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1770,7 +1799,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1794,13 +1823,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019724</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1813,7 +1842,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1821,20 +1850,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1847,15 +1862,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1014936</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>833014</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1868,7 +1883,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1876,20 +1891,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1902,15 +1903,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1923,7 +1924,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1931,20 +1932,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1957,15 +1944,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1978,7 +1965,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1986,20 +1973,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2012,15 +1985,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19150</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038873</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2033,7 +2006,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2041,20 +2014,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2067,15 +2026,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1048448</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866526</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2088,7 +2047,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2096,20 +2055,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2122,15 +2067,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>14362</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2143,7 +2088,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2151,20 +2096,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2497,33 +2428,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.8125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="16.25" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2535,7 +2466,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2552,7 +2483,7 @@
       <c r="I2" s="48"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2569,7 +2500,7 @@
       <c r="I3" s="48"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2590,7 +2521,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="16.25" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2610,7 +2541,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="16.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2623,7 +2554,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="32" t="s">
         <v>40</v>
@@ -2641,7 +2572,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.25" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2661,7 +2592,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.05" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="26" thickBot="1">
       <c r="A9" s="28" t="s">
         <v>2</v>
       </c>
@@ -2696,7 +2627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="72" t="s">
         <v>142</v>
       </c>
@@ -2733,7 +2664,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="54" customHeight="1">
       <c r="A11" s="13" t="str">
         <f t="shared" ref="A11:A26" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1),MID(A10,4,2)+1)),"")</f>
         <v>IMG02</v>
@@ -2769,9 +2700,11 @@
       <c r="J11" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG03</v>
@@ -2809,7 +2742,7 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="87.1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="98">
       <c r="A13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG04</v>
@@ -2845,9 +2778,11 @@
       <c r="J13" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="24.9" x14ac:dyDescent="0.4">
+      <c r="K13" s="123" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="28">
       <c r="A14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG05</v>
@@ -2883,9 +2818,11 @@
       <c r="J14" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="75" customHeight="1">
       <c r="A15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG06</v>
@@ -2921,9 +2858,11 @@
       <c r="J15" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="123" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="23" customHeight="1">
       <c r="A16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG07</v>
@@ -2961,7 +2900,7 @@
       </c>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG08</v>
@@ -2999,7 +2938,7 @@
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG09</v>
@@ -3037,7 +2976,7 @@
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="62.2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="72">
       <c r="A19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG10</v>
@@ -3070,12 +3009,14 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="84" t="s">
+      <c r="J19" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG11</v>
@@ -3113,7 +3054,7 @@
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG12</v>
@@ -3151,7 +3092,7 @@
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG13</v>
@@ -3189,7 +3130,7 @@
       </c>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG14</v>
@@ -3227,7 +3168,7 @@
       </c>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG15</v>
@@ -3265,7 +3206,7 @@
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG16</v>
@@ -3303,7 +3244,7 @@
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A26" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG17</v>
@@ -3341,7 +3282,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A27" s="13" t="str">
         <f t="shared" ref="A27:A83" si="3">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1),MID(A26,4,2)+1)),"")</f>
         <v/>
@@ -3372,7 +3313,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A28" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3403,7 +3344,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A29" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3434,7 +3375,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A30" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3465,7 +3406,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A31" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3496,7 +3437,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A32" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3527,7 +3468,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A33" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3558,7 +3499,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A34" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3589,7 +3530,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A35" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3620,7 +3561,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A36" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3651,7 +3592,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A37" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3682,7 +3623,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A38" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3713,7 +3654,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A39" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3744,7 +3685,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A40" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3775,7 +3716,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A41" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3806,7 +3747,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A42" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3837,7 +3778,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A43" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3868,7 +3809,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A44" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3899,7 +3840,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A45" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3930,7 +3871,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A46" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3961,7 +3902,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A47" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3992,7 +3933,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A48" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4023,7 +3964,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A49" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4054,7 +3995,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A50" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4085,7 +4026,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A51" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4116,7 +4057,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A52" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4147,7 +4088,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A53" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4178,7 +4119,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A54" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4209,7 +4150,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A55" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4240,7 +4181,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A56" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4271,7 +4212,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A57" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4302,7 +4243,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A58" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4333,7 +4274,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A59" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4364,7 +4305,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A60" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4395,7 +4336,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A61" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4426,7 +4367,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A62" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4457,7 +4398,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A63" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4488,7 +4429,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A64" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4519,7 +4460,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A65" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4550,7 +4491,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A66" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4581,7 +4522,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A67" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4612,7 +4553,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A68" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4643,7 +4584,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A69" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4674,7 +4615,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A70" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4705,7 +4646,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A71" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4736,7 +4677,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A72" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4767,7 +4708,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A73" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4798,7 +4739,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A74" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4829,7 +4770,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A75" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4860,7 +4801,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A76" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4891,7 +4832,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A77" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4922,7 +4863,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A78" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4953,7 +4894,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A79" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4984,7 +4925,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A80" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5015,7 +4956,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A81" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5046,7 +4987,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A82" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5077,7 +5018,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A83" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5108,7 +5049,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="8">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -5139,7 +5080,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A85" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5170,7 +5111,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A86" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5201,7 +5142,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A87" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5232,7 +5173,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A88" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5263,7 +5204,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A89" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5294,7 +5235,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A90" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5325,7 +5266,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A91" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5356,7 +5297,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A92" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5387,7 +5328,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A93" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5418,7 +5359,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A94" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5449,7 +5390,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A95" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5480,7 +5421,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A96" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5511,7 +5452,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A97" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5542,7 +5483,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A98" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5573,7 +5514,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A99" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5604,7 +5545,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A100" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5635,7 +5576,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A101" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5666,7 +5607,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A102" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5697,7 +5638,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A103" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5728,7 +5669,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A104" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5759,7 +5700,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A105" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5790,7 +5731,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A106" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5821,7 +5762,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A107" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5852,7 +5793,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A108" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5937,11 +5878,11 @@
     <hyperlink ref="B11" r:id="rId1"/>
     <hyperlink ref="B14" r:id="rId2"/>
     <hyperlink ref="B15" r:id="rId3"/>
-    <hyperlink ref="B13"/>
+    <hyperlink ref="B13" display="https://www.flickr.com/photos/niaid/5613656967/in/photolist-9y4sD6-663GS3-oUqw4E-aUpZtv-dntBkS-dkYoFh-4ZXvEZ-4YnKb1-8YbMM3-4YXcRC-o51L4j-76JBn-qAUTwY-8tKfgH-8tNhkL-5cKC4a-4UGmk7-61DzQU-3KuSy-q5DmCS-dWPJZt-pApGc6-AFNa1-56SBkB-fqJvak-aoWdob-AFN91-9VQDQb-9VQ"/>
     <hyperlink ref="B19" display="http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/c/c7/Sharplan_40C.jpg&amp;imgrefurl=http://en.wikipedia.org/wiki/Laser_scalpel&amp;h=2490&amp;w=1746&amp;tbnid=OSqpBE8hFKfKqM:&amp;zoom=1&amp;docid=F_kqsIpiwMd27M&amp;ei=ZtjrVLuWGOqPsQSlsYKgBw&amp;tbm=isch"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5952,25 +5893,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11" style="30"/>
-    <col min="3" max="3" width="13.875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="30" customWidth="1"/>
-    <col min="5" max="7" width="11" style="30"/>
+    <col min="1" max="1" width="72.1640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="30"/>
+    <col min="3" max="3" width="13.83203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="30" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="30"/>
     <col min="8" max="11" width="11" style="30" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="30"/>
+    <col min="12" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="16.25" thickBot="1">
       <c r="A1" s="104" t="s">
         <v>38</v>
       </c>
@@ -5980,7 +5921,7 @@
       <c r="E1" s="105"/>
       <c r="F1" s="106"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11">
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
@@ -5992,7 +5933,7 @@
       <c r="E2" s="109"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="63.25">
       <c r="A3" s="41" t="s">
         <v>43</v>
       </c>
@@ -6016,7 +5957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="31.75">
       <c r="A4" s="38" t="s">
         <v>44</v>
       </c>
@@ -6044,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="41" t="s">
         <v>45</v>
       </c>
@@ -6071,7 +6012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="32" thickBot="1">
       <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
@@ -6093,7 +6034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="32" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
@@ -6120,7 +6061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="47.5">
       <c r="A8" s="41" t="s">
         <v>53</v>
       </c>
@@ -6139,7 +6080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="47.5">
       <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
@@ -6158,7 +6099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="32" thickBot="1">
       <c r="A10" s="42" t="s">
         <v>36</v>
       </c>
@@ -6177,7 +6118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11">
       <c r="I11" s="30" t="s">
         <v>32</v>
       </c>
@@ -6188,7 +6129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="16.25" thickBot="1">
       <c r="I12" s="30" t="s">
         <v>37</v>
       </c>
@@ -6199,7 +6140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11">
       <c r="A13" s="104" t="s">
         <v>41</v>
       </c>
@@ -6218,7 +6159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="16.25" thickBot="1">
       <c r="A14" s="41"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -6235,7 +6176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11">
       <c r="A15" s="38" t="s">
         <v>46</v>
       </c>
@@ -6253,7 +6194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>47</v>
       </c>
@@ -6277,7 +6218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
       <c r="A17" s="38" t="s">
         <v>44</v>
       </c>
@@ -6298,7 +6239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="41" t="s">
         <v>48</v>
       </c>
@@ -6319,7 +6260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11">
       <c r="A19" s="38" t="s">
         <v>10</v>
       </c>
@@ -6338,7 +6279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
@@ -6360,7 +6301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11">
       <c r="H21" s="30" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6377,122 +6318,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11">
       <c r="K22" s="30">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11">
       <c r="K23" s="30">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11">
       <c r="K24" s="30">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11">
       <c r="K25" s="30">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11">
       <c r="K26" s="30">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11">
       <c r="K27" s="30">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11">
       <c r="K28" s="30">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11">
       <c r="K29" s="30">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11">
       <c r="K30" s="30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11">
       <c r="K31" s="30">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11">
       <c r="K32" s="30">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="11:11">
       <c r="K33" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="11:11">
       <c r="K34" s="30">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="11:11">
       <c r="K35" s="30">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="11:11">
       <c r="K36" s="30">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="11:11">
       <c r="K37" s="30">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="11:11">
       <c r="K38" s="30">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="11:11">
       <c r="K39" s="30">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="11:11">
       <c r="K40" s="30">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="11:11">
       <c r="K41" s="30">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="11:11">
       <c r="K42" s="30">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="11:11">
       <c r="K43" s="30">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="11:11">
       <c r="K44" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="11:11">
       <c r="K45" s="30" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6511,169 +6452,182 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019724</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1014936</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>833014</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19150</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038873</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1048448</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866526</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>14362</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6686,23 +6640,23 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="30" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="30"/>
-    <col min="5" max="5" width="11.75" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="30" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="30"/>
+    <col min="5" max="5" width="11.6640625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="11" style="30" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="30" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="30" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="30"/>
+    <col min="12" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="118" t="s">
         <v>56</v>
       </c>
@@ -6730,7 +6684,7 @@
       <c r="I1" s="119"/>
       <c r="J1" s="119"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11">
       <c r="A2" s="118"/>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
@@ -6748,7 +6702,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" s="51" customFormat="1">
       <c r="A3" s="50" t="s">
         <v>69</v>
       </c>
@@ -6772,7 +6726,7 @@
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
     </row>
-    <row r="4" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" s="51" customFormat="1">
       <c r="A4" s="52" t="s">
         <v>57</v>
       </c>
@@ -6800,7 +6754,7 @@
       </c>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" s="51" customFormat="1">
       <c r="A5" s="53" t="s">
         <v>77</v>
       </c>
@@ -6828,7 +6782,7 @@
       </c>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" s="51" customFormat="1">
       <c r="A6" s="52" t="s">
         <v>58</v>
       </c>
@@ -6860,7 +6814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" s="51" customFormat="1" ht="26.5">
       <c r="A7" s="52" t="s">
         <v>80</v>
       </c>
@@ -6888,7 +6842,7 @@
       </c>
       <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" s="51" customFormat="1">
       <c r="A8" s="52" t="s">
         <v>82</v>
       </c>
@@ -6916,7 +6870,7 @@
       </c>
       <c r="J8" s="52"/>
     </row>
-    <row r="9" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" s="51" customFormat="1">
       <c r="A9" s="52" t="s">
         <v>84</v>
       </c>
@@ -6944,7 +6898,7 @@
       </c>
       <c r="J9" s="52"/>
     </row>
-    <row r="10" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" s="51" customFormat="1">
       <c r="A10" s="52" t="s">
         <v>86</v>
       </c>
@@ -6970,7 +6924,7 @@
       </c>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="1:11" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" s="51" customFormat="1" ht="26.5">
       <c r="A11" s="52" t="s">
         <v>89</v>
       </c>
@@ -6998,7 +6952,7 @@
       </c>
       <c r="J11" s="52"/>
     </row>
-    <row r="12" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" s="51" customFormat="1">
       <c r="A12" s="52" t="s">
         <v>91</v>
       </c>
@@ -7026,7 +6980,7 @@
       </c>
       <c r="J12" s="52"/>
     </row>
-    <row r="13" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" ht="63.25">
       <c r="A13" s="55" t="s">
         <v>93</v>
       </c>
@@ -7053,7 +7007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11">
       <c r="A14" s="55" t="s">
         <v>97</v>
       </c>
@@ -7077,7 +7031,7 @@
       </c>
       <c r="J14" s="55"/>
     </row>
-    <row r="15" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" ht="31.75">
       <c r="A15" s="55" t="s">
         <v>99</v>
       </c>
@@ -7104,7 +7058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="95" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="95">
       <c r="A16" s="57" t="s">
         <v>103</v>
       </c>
@@ -7133,7 +7087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" ht="26.5">
       <c r="A17" s="52" t="s">
         <v>106</v>
       </c>
@@ -7162,12 +7116,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11">
       <c r="A20" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11">
       <c r="A21" s="62" t="s">
         <v>113</v>
       </c>
@@ -7180,7 +7134,7 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11">
       <c r="A22" s="65" t="s">
         <v>114</v>
       </c>
@@ -7193,7 +7147,7 @@
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11">
       <c r="A23" s="65" t="s">
         <v>115</v>
       </c>
@@ -7206,7 +7160,7 @@
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
     </row>
-    <row r="24" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" ht="31.75">
       <c r="A24" s="65" t="s">
         <v>116</v>
       </c>
@@ -7219,7 +7173,7 @@
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11">
       <c r="A25" s="65" t="s">
         <v>117</v>
       </c>
@@ -7232,7 +7186,7 @@
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
     </row>
-    <row r="26" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" ht="63.25">
       <c r="A26" s="65" t="s">
         <v>118</v>
       </c>
@@ -7258,5 +7212,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35020" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="1260" yWindow="1080" windowWidth="35020" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -2432,8 +2432,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2704,7 +2704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG03</v>

--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="35020" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="2960" yWindow="620" windowWidth="35020" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
   <si>
     <t>Fecha:</t>
   </si>
@@ -517,9 +517,6 @@
     <t>http://upload.wikimedia.org/wikipedia/commons/0/01/Blood_letting.jpg</t>
   </si>
   <si>
-    <t>https://www.flickr.com/photos/niaid/5613656967/in/photolist-9y4sD6-663GS3-oUqw4E-aUpZtv-dntBkS-dkYoFh-4ZXvEZ-4YnKb1-8YbMM3-4YXcRC-o51L4j-76JBn-qAUTwY-8tKfgH-8tNhkL-5cKC4a-4UGmk7-61DzQU-3KuSy-q5DmCS-dWPJZt-pApGc6-AFNa1-56SBkB-fqJvak-aoWdob-AFN91-9VQDQb-9VQDTf-aoTsPK-qbdaqP-q975rQ-qagM4E-5kV8ot-9VQDMq-a3bJE2-5TYVL9-pAmf2i-5TVUyU-f4X8hj-8u1KXR-dQu5BG-97CcJU-xHczv-4URYiB-4YgqFy-7wsmgv-6pu9Ck-4TsbqH</t>
-  </si>
-  <si>
     <t>http://upload.wikimedia.org/wikipedia/commons/c/c2/1887_postcard_of_Queen_Victoria.jpg</t>
   </si>
   <si>
@@ -595,10 +592,10 @@
     <t>dominio publico</t>
   </si>
   <si>
-    <t>credito : NIAID</t>
-  </si>
-  <si>
-    <t>credito: "Schprophase". Licensed under CC BY-SA 2.5 via Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Schprophase.jpg#/media/File:Schprophase.jpg</t>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Ilustrar según muestra</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1278,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1337,8 +1334,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1542,9 +1540,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1571,6 +1566,18 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1670,20 +1677,14 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="51" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="53">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1735,6 +1736,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2432,8 +2434,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2454,7 +2456,7 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2466,49 +2468,49 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="F2" s="87" t="s">
+      <c r="D2" s="98"/>
+      <c r="F2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="99">
         <v>7</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="F3" s="89">
+      <c r="D3" s="100"/>
+      <c r="F3" s="92">
         <v>42074</v>
       </c>
-      <c r="G3" s="90"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="99"/>
+      <c r="C4" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="102"/>
       <c r="E4" s="5"/>
       <c r="F4" s="47" t="s">
         <v>55</v>
@@ -2521,15 +2523,15 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1">
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="101"/>
+      <c r="C5" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="104"/>
       <c r="E5" s="5"/>
       <c r="F5" s="45" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2541,7 +2543,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2560,7 +2562,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -2572,18 +2574,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.25" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2592,7 +2594,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26" thickBot="1">
+    <row r="9" spans="1:16" ht="14" thickBot="1">
       <c r="A9" s="28" t="s">
         <v>2</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2697,11 +2699,11 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="121" t="s">
-        <v>174</v>
+      <c r="J11" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="87" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="57" customHeight="1">
@@ -2737,18 +2739,18 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="82" t="s">
-        <v>155</v>
+      <c r="J12" s="81" t="s">
+        <v>154</v>
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="98">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="14">
       <c r="A13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="77" t="s">
-        <v>149</v>
+      <c r="B13" s="124">
+        <v>152834198</v>
       </c>
       <c r="C13" s="74" t="s">
         <v>145</v>
@@ -2775,12 +2777,10 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="123" t="s">
-        <v>175</v>
-      </c>
+      <c r="J13" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="28">
       <c r="A14" s="13" t="str">
@@ -2788,7 +2788,7 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="74" t="s">
         <v>145</v>
@@ -2815,11 +2815,11 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="121" t="s">
-        <v>174</v>
+      <c r="J14" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="87" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="75" customHeight="1">
@@ -2828,13 +2828,13 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="74" t="s">
-        <v>146</v>
+      <c r="D15" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>147</v>
@@ -2855,11 +2855,11 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="82" t="s">
-        <v>158</v>
+      <c r="J15" s="81" t="s">
+        <v>157</v>
       </c>
       <c r="K15" s="123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="23" customHeight="1">
@@ -2867,7 +2867,7 @@
         <f t="shared" si="0"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="77">
         <v>132237047</v>
       </c>
       <c r="C16" s="74" t="s">
@@ -2895,8 +2895,8 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="84" t="s">
-        <v>159</v>
+      <c r="J16" s="83" t="s">
+        <v>158</v>
       </c>
       <c r="K16" s="29"/>
     </row>
@@ -2905,7 +2905,7 @@
         <f t="shared" si="0"/>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="77">
         <v>138638984</v>
       </c>
       <c r="C17" s="74" t="s">
@@ -2933,8 +2933,8 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="85" t="s">
-        <v>160</v>
+      <c r="J17" s="84" t="s">
+        <v>159</v>
       </c>
       <c r="K17" s="21"/>
     </row>
@@ -2943,7 +2943,7 @@
         <f t="shared" si="0"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="77">
         <v>158365127</v>
       </c>
       <c r="C18" s="74" t="s">
@@ -2971,8 +2971,8 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="85" t="s">
-        <v>161</v>
+      <c r="J18" s="84" t="s">
+        <v>160</v>
       </c>
       <c r="K18" s="21"/>
     </row>
@@ -2981,8 +2981,8 @@
         <f t="shared" si="0"/>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="79" t="s">
-        <v>152</v>
+      <c r="B19" s="78" t="s">
+        <v>151</v>
       </c>
       <c r="C19" s="74" t="s">
         <v>145</v>
@@ -3009,11 +3009,11 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="120" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" s="122" t="s">
-        <v>173</v>
+      <c r="J19" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="88" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1">
@@ -3021,7 +3021,7 @@
         <f t="shared" si="0"/>
         <v>IMG11</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="77">
         <v>196514594</v>
       </c>
       <c r="C20" s="74" t="s">
@@ -3049,8 +3049,8 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="82" t="s">
-        <v>163</v>
+      <c r="J20" s="81" t="s">
+        <v>162</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3059,7 +3059,7 @@
         <f t="shared" si="0"/>
         <v>IMG12</v>
       </c>
-      <c r="B21" s="80">
+      <c r="B21" s="79">
         <v>189090734</v>
       </c>
       <c r="C21" s="74" t="s">
@@ -3087,8 +3087,8 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="85" t="s">
-        <v>164</v>
+      <c r="J21" s="84" t="s">
+        <v>163</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3097,7 +3097,7 @@
         <f t="shared" si="0"/>
         <v>IMG13</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="80">
         <v>107915651</v>
       </c>
       <c r="C22" s="74" t="s">
@@ -3125,8 +3125,8 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="86" t="s">
-        <v>165</v>
+      <c r="J22" s="85" t="s">
+        <v>164</v>
       </c>
       <c r="K22" s="20"/>
     </row>
@@ -3135,7 +3135,7 @@
         <f t="shared" si="0"/>
         <v>IMG14</v>
       </c>
-      <c r="B23" s="78">
+      <c r="B23" s="77">
         <v>201006257</v>
       </c>
       <c r="C23" s="74" t="s">
@@ -3163,8 +3163,8 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="82" t="s">
-        <v>166</v>
+      <c r="J23" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -3202,7 +3202,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K24" s="15"/>
     </row>
@@ -3211,7 +3211,7 @@
         <f t="shared" si="0"/>
         <v>IMG16</v>
       </c>
-      <c r="B25" s="78">
+      <c r="B25" s="77">
         <v>112344575</v>
       </c>
       <c r="C25" s="74" t="s">
@@ -3240,7 +3240,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K25" s="19"/>
     </row>
@@ -3249,7 +3249,7 @@
         <f t="shared" si="0"/>
         <v>IMG17</v>
       </c>
-      <c r="B26" s="78">
+      <c r="B26" s="77">
         <v>189319409</v>
       </c>
       <c r="C26" s="74" t="s">
@@ -3278,11 +3278,11 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="27" spans="1:11" s="12" customFormat="1">
       <c r="A27" s="13" t="str">
         <f t="shared" ref="A27:A83" si="3">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1),MID(A26,4,2)+1)),"")</f>
         <v/>
@@ -3313,7 +3313,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="28" spans="1:11" s="12" customFormat="1">
       <c r="A28" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3344,7 +3344,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="29" spans="1:11" s="12" customFormat="1">
       <c r="A29" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3375,7 +3375,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3406,7 +3406,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="31" spans="1:11" s="12" customFormat="1">
       <c r="A31" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3437,7 +3437,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="32" spans="1:11" s="12" customFormat="1">
       <c r="A32" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3468,7 +3468,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="33" spans="1:11" s="12" customFormat="1">
       <c r="A33" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3499,7 +3499,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="34" spans="1:11" s="12" customFormat="1">
       <c r="A34" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3530,7 +3530,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="35" spans="1:11" s="12" customFormat="1">
       <c r="A35" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3561,7 +3561,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="36" spans="1:11" s="12" customFormat="1">
       <c r="A36" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3592,7 +3592,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="37" spans="1:11" s="12" customFormat="1">
       <c r="A37" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3623,7 +3623,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="38" spans="1:11" s="12" customFormat="1">
       <c r="A38" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3654,7 +3654,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="39" spans="1:11" s="12" customFormat="1">
       <c r="A39" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3685,7 +3685,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="40" spans="1:11" s="12" customFormat="1">
       <c r="A40" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3716,7 +3716,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="41" spans="1:11" s="12" customFormat="1">
       <c r="A41" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3747,7 +3747,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="42" spans="1:11" s="12" customFormat="1">
       <c r="A42" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3778,7 +3778,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="43" spans="1:11" s="12" customFormat="1">
       <c r="A43" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3809,7 +3809,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="44" spans="1:11" s="12" customFormat="1">
       <c r="A44" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3840,7 +3840,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="45" spans="1:11" s="12" customFormat="1">
       <c r="A45" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3871,7 +3871,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="46" spans="1:11" s="12" customFormat="1">
       <c r="A46" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3902,7 +3902,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="47" spans="1:11" s="12" customFormat="1">
       <c r="A47" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3933,7 +3933,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="48" spans="1:11" s="12" customFormat="1">
       <c r="A48" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3964,7 +3964,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="49" spans="1:11" s="12" customFormat="1">
       <c r="A49" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3995,7 +3995,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="50" spans="1:11" s="12" customFormat="1">
       <c r="A50" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4026,7 +4026,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="51" spans="1:11" s="12" customFormat="1">
       <c r="A51" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4057,7 +4057,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="52" spans="1:11" s="12" customFormat="1">
       <c r="A52" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4088,7 +4088,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="53" spans="1:11" s="12" customFormat="1">
       <c r="A53" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4119,7 +4119,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="54" spans="1:11" s="12" customFormat="1">
       <c r="A54" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4150,7 +4150,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="55" spans="1:11" s="12" customFormat="1">
       <c r="A55" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4181,7 +4181,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="56" spans="1:11" s="12" customFormat="1">
       <c r="A56" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4212,7 +4212,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="57" spans="1:11" s="12" customFormat="1">
       <c r="A57" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4243,7 +4243,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="58" spans="1:11" s="12" customFormat="1">
       <c r="A58" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4274,7 +4274,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="59" spans="1:11" s="12" customFormat="1">
       <c r="A59" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4305,7 +4305,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="60" spans="1:11" s="12" customFormat="1">
       <c r="A60" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4336,7 +4336,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="61" spans="1:11" s="12" customFormat="1">
       <c r="A61" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4367,7 +4367,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="62" spans="1:11" s="12" customFormat="1">
       <c r="A62" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4398,7 +4398,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="63" spans="1:11" s="12" customFormat="1">
       <c r="A63" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4429,7 +4429,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="64" spans="1:11" s="12" customFormat="1">
       <c r="A64" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4460,7 +4460,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="65" spans="1:11" s="12" customFormat="1">
       <c r="A65" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4491,7 +4491,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="66" spans="1:11" s="12" customFormat="1">
       <c r="A66" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4522,7 +4522,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="67" spans="1:11" s="12" customFormat="1">
       <c r="A67" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4553,7 +4553,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="68" spans="1:11" s="12" customFormat="1">
       <c r="A68" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4584,7 +4584,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="69" spans="1:11" s="12" customFormat="1">
       <c r="A69" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4615,7 +4615,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="70" spans="1:11" s="12" customFormat="1">
       <c r="A70" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4646,7 +4646,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="71" spans="1:11" s="12" customFormat="1">
       <c r="A71" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4677,7 +4677,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="72" spans="1:11" s="12" customFormat="1">
       <c r="A72" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4708,7 +4708,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="73" spans="1:11" s="12" customFormat="1">
       <c r="A73" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4739,7 +4739,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="74" spans="1:11" s="12" customFormat="1">
       <c r="A74" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4770,7 +4770,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="75" spans="1:11" s="12" customFormat="1">
       <c r="A75" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4801,7 +4801,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="76" spans="1:11" s="12" customFormat="1">
       <c r="A76" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4832,7 +4832,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="77" spans="1:11" s="12" customFormat="1">
       <c r="A77" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4863,7 +4863,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="78" spans="1:11" s="12" customFormat="1">
       <c r="A78" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4894,7 +4894,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="79" spans="1:11" s="12" customFormat="1">
       <c r="A79" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4925,7 +4925,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="80" spans="1:11" s="12" customFormat="1">
       <c r="A80" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4956,7 +4956,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="81" spans="1:11" s="12" customFormat="1">
       <c r="A81" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4987,7 +4987,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="82" spans="1:11" s="12" customFormat="1">
       <c r="A82" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5018,7 +5018,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="83" spans="1:11" s="12" customFormat="1">
       <c r="A83" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5049,7 +5049,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="84" spans="1:11" s="12" customFormat="1">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="8">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -5080,7 +5080,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="85" spans="1:11" s="12" customFormat="1">
       <c r="A85" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5111,7 +5111,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="86" spans="1:11" s="12" customFormat="1">
       <c r="A86" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5142,7 +5142,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="87" spans="1:11" s="12" customFormat="1">
       <c r="A87" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5173,7 +5173,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="88" spans="1:11" s="12" customFormat="1">
       <c r="A88" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5204,7 +5204,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="89" spans="1:11" s="12" customFormat="1">
       <c r="A89" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5235,7 +5235,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="90" spans="1:11" s="12" customFormat="1">
       <c r="A90" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5266,7 +5266,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="91" spans="1:11" s="12" customFormat="1">
       <c r="A91" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5297,7 +5297,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="92" spans="1:11" s="12" customFormat="1">
       <c r="A92" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5328,7 +5328,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="93" spans="1:11" s="12" customFormat="1">
       <c r="A93" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5359,7 +5359,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="94" spans="1:11" s="12" customFormat="1">
       <c r="A94" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5390,7 +5390,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="95" spans="1:11" s="12" customFormat="1">
       <c r="A95" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5421,7 +5421,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="96" spans="1:11" s="12" customFormat="1">
       <c r="A96" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5452,7 +5452,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="97" spans="1:11" s="12" customFormat="1">
       <c r="A97" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5483,7 +5483,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="98" spans="1:11" s="12" customFormat="1">
       <c r="A98" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5514,7 +5514,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="99" spans="1:11" s="12" customFormat="1">
       <c r="A99" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5545,7 +5545,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="100" spans="1:11" s="12" customFormat="1">
       <c r="A100" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5576,7 +5576,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="101" spans="1:11" s="12" customFormat="1">
       <c r="A101" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5607,7 +5607,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="102" spans="1:11" s="12" customFormat="1">
       <c r="A102" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5638,7 +5638,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="103" spans="1:11" s="12" customFormat="1">
       <c r="A103" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5669,7 +5669,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="104" spans="1:11" s="12" customFormat="1">
       <c r="A104" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5700,7 +5700,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="105" spans="1:11" s="12" customFormat="1">
       <c r="A105" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5731,7 +5731,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="106" spans="1:11" s="12" customFormat="1">
       <c r="A106" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5762,7 +5762,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="107" spans="1:11" s="12" customFormat="1">
       <c r="A107" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5793,7 +5793,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="108" spans="1:11" s="12" customFormat="1">
       <c r="A108" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5878,8 +5878,8 @@
     <hyperlink ref="B11" r:id="rId1"/>
     <hyperlink ref="B14" r:id="rId2"/>
     <hyperlink ref="B15" r:id="rId3"/>
-    <hyperlink ref="B13" display="https://www.flickr.com/photos/niaid/5613656967/in/photolist-9y4sD6-663GS3-oUqw4E-aUpZtv-dntBkS-dkYoFh-4ZXvEZ-4YnKb1-8YbMM3-4YXcRC-o51L4j-76JBn-qAUTwY-8tKfgH-8tNhkL-5cKC4a-4UGmk7-61DzQU-3KuSy-q5DmCS-dWPJZt-pApGc6-AFNa1-56SBkB-fqJvak-aoWdob-AFN91-9VQDQb-9VQ"/>
     <hyperlink ref="B19" display="http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/c/c7/Sharplan_40C.jpg&amp;imgrefurl=http://en.wikipedia.org/wiki/Laser_scalpel&amp;h=2490&amp;w=1746&amp;tbnid=OSqpBE8hFKfKqM:&amp;zoom=1&amp;docid=F_kqsIpiwMd27M&amp;ei=ZtjrVLuWGOqPsQSlsYKgBw&amp;tbm=isch"/>
+    <hyperlink ref="B13" r:id="rId4" display="http://www.shutterstock.com/pic-152834198/stock-photo-salmonella-d-rendered-illustration.html?src=wCO0sYBdK286vEELDoszvA-1-0"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5911,38 +5911,38 @@
     <col min="12" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="39"/>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:11" ht="63.25">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="39"/>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="40"/>
       <c r="H3" s="30" t="s">
         <v>18</v>
@@ -5957,7 +5957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.75">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="38" t="s">
         <v>44</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="41" t="s">
         <v>45</v>
       </c>
@@ -5993,11 +5993,11 @@
       <c r="C5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="116" t="str">
+      <c r="D5" s="119" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="120"/>
       <c r="F5" s="40"/>
       <c r="H5" s="30" t="s">
         <v>22</v>
@@ -6012,7 +6012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
@@ -6042,12 +6042,12 @@
       <c r="C7" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="102" t="str">
+      <c r="D7" s="105" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
       <c r="H7" s="30" t="s">
         <v>24</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="41" t="s">
         <v>53</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="42" t="s">
         <v>36</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="30" t="s">
         <v>37</v>
       </c>
@@ -6141,14 +6141,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
       <c r="I13" s="30" t="s">
         <v>33</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="41"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -6181,12 +6181,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="39"/>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
       <c r="J15" s="30">
         <v>12</v>
       </c>
@@ -6226,12 +6226,12 @@
       <c r="C17" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="110" t="str">
+      <c r="D17" s="113" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
       <c r="J17" s="30">
         <v>14</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="41" t="s">
         <v>48</v>
       </c>
@@ -6247,12 +6247,12 @@
       <c r="C18" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="102" t="str">
+      <c r="D18" s="105" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="106"/>
       <c r="J18" s="30">
         <v>15</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
@@ -6657,41 +6657,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
       <c r="H2" s="49" t="s">
         <v>65</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="51" customFormat="1" ht="26.5">
+    <row r="7" spans="1:11" s="51" customFormat="1" ht="28">
       <c r="A7" s="52" t="s">
         <v>80</v>
       </c>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:11" s="51" customFormat="1">
+    <row r="8" spans="1:11" s="51" customFormat="1" ht="28">
       <c r="A8" s="52" t="s">
         <v>82</v>
       </c>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="1:11" s="51" customFormat="1" ht="26.5">
+    <row r="11" spans="1:11" s="51" customFormat="1" ht="28">
       <c r="A11" s="52" t="s">
         <v>89</v>
       </c>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="J12" s="52"/>
     </row>
-    <row r="13" spans="1:11" ht="63.25">
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="55" t="s">
         <v>93</v>
       </c>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="J14" s="55"/>
     </row>
-    <row r="15" spans="1:11" ht="31.75">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="55" t="s">
         <v>99</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="95">
+    <row r="16" spans="1:11" ht="90">
       <c r="A16" s="57" t="s">
         <v>103</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5">
+    <row r="17" spans="1:11" ht="28">
       <c r="A17" s="52" t="s">
         <v>106</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
     </row>
-    <row r="24" spans="1:11" ht="31.75">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="65" t="s">
         <v>116</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
     </row>
-    <row r="26" spans="1:11" ht="63.25">
+    <row r="26" spans="1:11" ht="60">
       <c r="A26" s="65" t="s">
         <v>118</v>
       </c>

--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="174">
   <si>
     <t>Fecha:</t>
   </si>
@@ -523,9 +523,6 @@
     <t>http://upload.wikimedia.org/wikipedia/commons/4/47/Schprophase.jpg</t>
   </si>
   <si>
-    <t>http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/c/c7/Sharplan_40C.jpg&amp;imgrefurl=http://en.wikipedia.org/wiki/Laser_scalpel&amp;h=2490&amp;w=1746&amp;tbnid=OSqpBE8hFKfKqM:&amp;zoom=1&amp;docid=F_kqsIpiwMd27M&amp;ei=ZtjrVLuWGOqPsQSlsYKgBw&amp;tbm=isch&amp;ved=0CB4QMygAMAA</t>
-  </si>
-  <si>
     <t>Fotografía de un busto de Hipócrates</t>
   </si>
   <si>
@@ -584,9 +581,6 @@
   </si>
   <si>
     <t>CN_07_13_CO</t>
-  </si>
-  <si>
-    <t>credito:"Sharplan 40C" by Etan J. Tal - Own work. Licensed under CC BY-SA 3.0 via Wikimedia Commons - http://commons.wikimedia.org/wiki/File:Sharplan_40C.jpg#/media/File:Sharplan_40C.jpg</t>
   </si>
   <si>
     <t>dominio publico</t>
@@ -1278,7 +1272,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1335,6 +1329,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1579,6 +1579,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="51" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1677,14 +1683,8 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="51" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="59">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1737,6 +1737,12 @@
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -2435,7 +2441,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2473,14 +2479,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="F2" s="90" t="s">
+      <c r="D2" s="100"/>
+      <c r="F2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="91"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="16"/>
@@ -2490,14 +2496,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="101">
         <v>7</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="F3" s="92">
+      <c r="D3" s="102"/>
+      <c r="F3" s="94">
         <v>42074</v>
       </c>
-      <c r="G3" s="93"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="16"/>
@@ -2507,10 +2513,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="102"/>
+      <c r="C4" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="104"/>
       <c r="E4" s="5"/>
       <c r="F4" s="47" t="s">
         <v>55</v>
@@ -2528,10 +2534,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="104"/>
+      <c r="C5" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="106"/>
       <c r="E5" s="5"/>
       <c r="F5" s="45" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2562,7 +2568,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -2580,12 +2586,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="96"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="98"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2662,7 +2668,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2700,10 +2706,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="57" customHeight="1">
@@ -2740,7 +2746,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -2749,7 +2755,7 @@
         <f t="shared" si="0"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="124">
+      <c r="B13" s="91">
         <v>152834198</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -2778,7 +2784,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K13" s="89"/>
     </row>
@@ -2816,10 +2822,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" s="87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="75" customHeight="1">
@@ -2834,7 +2840,7 @@
         <v>145</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>147</v>
@@ -2856,10 +2862,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="123" t="s">
-        <v>175</v>
+        <v>156</v>
+      </c>
+      <c r="K15" s="90" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="23" customHeight="1">
@@ -2896,7 +2902,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K16" s="29"/>
     </row>
@@ -2934,7 +2940,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K17" s="21"/>
     </row>
@@ -2972,17 +2978,17 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="72">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="14">
       <c r="A19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>151</v>
+      <c r="B19" s="78">
+        <v>144666932</v>
       </c>
       <c r="C19" s="74" t="s">
         <v>145</v>
@@ -3010,11 +3016,9 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="K19" s="88" t="s">
-        <v>172</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K19" s="88"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A20" s="13" t="str">
@@ -3050,7 +3054,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3088,7 +3092,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3126,7 +3130,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K22" s="20"/>
     </row>
@@ -3164,7 +3168,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -3202,7 +3206,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K24" s="15"/>
     </row>
@@ -3240,7 +3244,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K25" s="19"/>
     </row>
@@ -3278,7 +3282,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K26" s="19"/>
     </row>
@@ -5912,25 +5916,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="39"/>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -5938,11 +5942,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="39"/>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
       <c r="F3" s="40"/>
       <c r="H3" s="30" t="s">
         <v>18</v>
@@ -5993,11 +5997,11 @@
       <c r="C5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="119" t="str">
+      <c r="D5" s="121" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="120"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="40"/>
       <c r="H5" s="30" t="s">
         <v>22</v>
@@ -6042,12 +6046,12 @@
       <c r="C7" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="105" t="str">
+      <c r="D7" s="107" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
       <c r="H7" s="30" t="s">
         <v>24</v>
       </c>
@@ -6141,14 +6145,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="I13" s="30" t="s">
         <v>33</v>
       </c>
@@ -6181,12 +6185,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="39"/>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
       <c r="J15" s="30">
         <v>12</v>
       </c>
@@ -6226,12 +6230,12 @@
       <c r="C17" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="113" t="str">
+      <c r="D17" s="115" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
       <c r="J17" s="30">
         <v>14</v>
       </c>
@@ -6247,12 +6251,12 @@
       <c r="C18" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="105" t="str">
+      <c r="D18" s="107" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
       <c r="J18" s="30">
         <v>15</v>
       </c>
@@ -6657,41 +6661,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
       <c r="H2" s="49" t="s">
         <v>65</v>
       </c>
